--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1649400.421678438</v>
+        <v>1648048.268424447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7109388.132702586</v>
+        <v>7109388.132702581</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734452.363318047</v>
+        <v>1734452.363318049</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>347.3700756018915</v>
       </c>
       <c r="H2" t="n">
-        <v>259.4870266787231</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -712,13 +712,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -803,10 +803,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>43.03006696964051</v>
+        <v>92.00638869272557</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>149.4736732291616</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>155.6942298771795</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>112.0877462463458</v>
       </c>
       <c r="E5" t="n">
-        <v>322.8380280139069</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>27.46801669177194</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -1040,7 +1040,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>105.7199028911843</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>171.8829920148818</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>100.8930690861511</v>
+      </c>
+      <c r="C8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>390.1527797502169</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.75840461170334</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>38.69730777810975</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.429024116165335</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
@@ -1293,13 +1293,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.3157924738358</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.22569297773855</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1426,19 +1426,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>158.7046824723382</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>122.3997653620689</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>82.85798684944109</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.42520756919174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.3581728762679</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>46.22026485952242</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>249.8416865264124</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.2898298336174</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H17" t="n">
         <v>304.2029779656798</v>
       </c>
       <c r="I17" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543672</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.9259454362165</v>
+        <v>125.9259454362183</v>
       </c>
       <c r="T17" t="n">
         <v>218.4471662669313</v>
@@ -1943,7 +1943,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I18" t="n">
-        <v>14.07197276257017</v>
+        <v>14.07197276257018</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.09499504611022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.7108542792373</v>
+        <v>22.56473848607982</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.2898298336174</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H20" t="n">
-        <v>304.2029779656798</v>
+        <v>304.2029779656805</v>
       </c>
       <c r="I20" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>34.39843167915952</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U22" t="n">
         <v>279.9615737930588</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>90.92299390850391</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2338,7 +2338,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I23" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>125.9259454362174</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T23" t="n">
         <v>218.4471662669313</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.4801970412658</v>
@@ -2535,16 +2535,16 @@
         <v>279.9615737930588</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>235.3001169305586</v>
       </c>
       <c r="X25" t="n">
-        <v>34.84335566597237</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561837</v>
+        <v>379.9226978561855</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.4578956763729</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.7108542792373</v>
+        <v>26.11890741170915</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I29" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T29" t="n">
-        <v>218.447166266932</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U29" t="n">
         <v>254.4617931084866</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.913941075668992</v>
+        <v>87.49724482210753</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>146.7108542792373</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.7826469229764</v>
@@ -3006,19 +3006,19 @@
         <v>236.4801970412658</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>125.9259454362165</v>
+        <v>125.9259454362156</v>
       </c>
       <c r="T32" t="n">
         <v>218.4471662669313</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4617931084856</v>
+        <v>254.4617931084892</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.4801970412658</v>
       </c>
       <c r="U34" t="n">
-        <v>246.2247526798663</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078707</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>125.9259454362183</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T35" t="n">
         <v>218.4471662669313</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.0871916394412</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9615737930588</v>
+        <v>42.93448214651722</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.2898298336174</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H38" t="n">
         <v>304.2029779656798</v>
       </c>
       <c r="I38" t="n">
-        <v>71.94970840543668</v>
+        <v>71.9497084054367</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4617931084866</v>
+        <v>254.4617931084883</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>67.50669282849421</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.4801970412658</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>133.2617073003181</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>222.3445052409103</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.94970840543668</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>129.8982040837908</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.4617931084866</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U43" t="n">
-        <v>55.5761037683906</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>181.5094907094671</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>404.2898298336167</v>
       </c>
       <c r="H44" t="n">
-        <v>304.2029779656798</v>
+        <v>76.38700774152683</v>
       </c>
       <c r="I44" t="n">
-        <v>71.94970840543668</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4617931084866</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>172.0344052349946</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4137,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>75.33495787667997</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>76.38556032504066</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>236.4801970412658</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418.1575048474627</v>
+        <v>1196.942784117742</v>
       </c>
       <c r="C2" t="n">
-        <v>412.0733182011369</v>
+        <v>1190.858597471416</v>
       </c>
       <c r="D2" t="n">
-        <v>411.6497923346016</v>
+        <v>1190.43507160488</v>
       </c>
       <c r="E2" t="n">
-        <v>401.3499808919023</v>
+        <v>796.3413546854695</v>
       </c>
       <c r="F2" t="n">
-        <v>384.3599728859939</v>
+        <v>779.3513466795611</v>
       </c>
       <c r="G2" t="n">
-        <v>379.6720928192302</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H2" t="n">
         <v>117.5639850629442</v>
@@ -4336,22 +4336,22 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>671.6489458004863</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M2" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N2" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O2" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P2" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R2" t="n">
         <v>1560.611119000868</v>
@@ -4360,22 +4360,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1168.269552054478</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V2" t="n">
-        <v>818.4319973909592</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W2" t="n">
-        <v>818.4319973909592</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X2" t="n">
-        <v>818.4319973909592</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y2" t="n">
-        <v>424.3382804715482</v>
+        <v>1203.123559741827</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.1459064859441</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="C3" t="n">
-        <v>459.1508352348899</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D3" t="n">
         <v>459.1508352348899</v>
@@ -4409,52 +4409,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4634743327321</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N3" t="n">
-        <v>803.7147262854468</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O3" t="n">
-        <v>1144.800347685523</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P3" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1149.54878113212</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>936.3156128684487</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X3" t="n">
-        <v>892.8508987577007</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="Y3" t="n">
-        <v>733.4489391215308</v>
+        <v>576.0479930154975</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.7140010185257</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C4" t="n">
-        <v>492.7140010185257</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D4" t="n">
-        <v>492.7140010185257</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E4" t="n">
-        <v>331.8031858868452</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F4" t="n">
-        <v>331.8031858868452</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G4" t="n">
-        <v>180.8196775745607</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1288.946632556178</v>
+        <v>1403.34422013503</v>
       </c>
       <c r="T4" t="n">
-        <v>1049.39789353288</v>
+        <v>1403.34422013503</v>
       </c>
       <c r="U4" t="n">
-        <v>766.5997460790038</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="V4" t="n">
-        <v>492.7140010185257</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="W4" t="n">
-        <v>492.7140010185257</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="X4" t="n">
-        <v>492.7140010185257</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="Y4" t="n">
-        <v>492.7140010185257</v>
+        <v>1120.546072681154</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>782.7571012166252</v>
+        <v>1419.149268170883</v>
       </c>
       <c r="C5" t="n">
-        <v>776.6729145702993</v>
+        <v>1413.065081524557</v>
       </c>
       <c r="D5" t="n">
-        <v>776.2493887037639</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="E5" t="n">
-        <v>450.1503705078983</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="F5" t="n">
-        <v>433.1603625019899</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="G5" t="n">
-        <v>428.4724824352262</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H5" t="n">
         <v>117.5639850629442</v>
@@ -4570,22 +4570,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>1057.900197753201</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M5" t="n">
-        <v>1057.900197753201</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N5" t="n">
-        <v>1057.900197753201</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O5" t="n">
-        <v>1133.803221358588</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q5" t="n">
         <v>1520.054473311303</v>
@@ -4594,25 +4594,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W5" t="n">
-        <v>1176.850818136036</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X5" t="n">
-        <v>1176.850818136036</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="Y5" t="n">
-        <v>1176.850818136036</v>
+        <v>1425.330043794968</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.8417770616245</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C6" t="n">
-        <v>325.8467058105702</v>
+        <v>58.9576937858476</v>
       </c>
       <c r="D6" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E6" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F6" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
         <v>31.21222238001735</v>
@@ -4646,22 +4646,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>401.8573631427234</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M6" t="n">
-        <v>788.1086150954382</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N6" t="n">
         <v>1174.359867048153</v>
       </c>
       <c r="O6" t="n">
-        <v>1560.611119000868</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P6" t="n">
         <v>1560.611119000868</v>
@@ -4679,19 +4679,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U6" t="n">
-        <v>1293.279245302185</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V6" t="n">
-        <v>1079.567718295218</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W6" t="n">
-        <v>866.3345500315471</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X6" t="n">
-        <v>759.5467693333811</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y6" t="n">
-        <v>600.1448096972111</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.0514280040638</v>
+        <v>361.8002394953908</v>
       </c>
       <c r="C7" t="n">
-        <v>789.9580555657803</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="D7" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4752,25 +4752,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T7" t="n">
-        <v>1134.67061185748</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U7" t="n">
-        <v>961.0514280040638</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V7" t="n">
-        <v>961.0514280040638</v>
+        <v>1291.649171132113</v>
       </c>
       <c r="W7" t="n">
-        <v>961.0514280040638</v>
+        <v>1012.579506640987</v>
       </c>
       <c r="X7" t="n">
-        <v>961.0514280040638</v>
+        <v>774.2356445006706</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.0514280040638</v>
+        <v>549.4999458894353</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.4915398849617</v>
+        <v>457.7071646813351</v>
       </c>
       <c r="C8" t="n">
-        <v>447.4073532386359</v>
+        <v>63.61344776192411</v>
       </c>
       <c r="D8" t="n">
-        <v>446.9838273721005</v>
+        <v>63.18992189538872</v>
       </c>
       <c r="E8" t="n">
         <v>52.89011045268948</v>
@@ -4810,19 +4810,19 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>671.6489458004863</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M8" t="n">
-        <v>671.6489458004863</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N8" t="n">
-        <v>1057.900197753201</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="O8" t="n">
-        <v>1444.151449705916</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P8" t="n">
-        <v>1444.151449705916</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q8" t="n">
         <v>1560.611119000868</v>
@@ -4831,25 +4831,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1463.885457776925</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T8" t="n">
-        <v>1241.678973723784</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U8" t="n">
-        <v>1241.678973723784</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V8" t="n">
-        <v>1241.678973723784</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="W8" t="n">
-        <v>1241.678973723784</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="X8" t="n">
-        <v>1241.678973723784</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.5852568043726</v>
+        <v>559.6193556774474</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>601.0831844490563</v>
+        <v>657.6354495973663</v>
       </c>
       <c r="C9" t="n">
-        <v>467.088113198002</v>
+        <v>523.640378346312</v>
       </c>
       <c r="D9" t="n">
-        <v>350.1909554173944</v>
+        <v>406.7432205657044</v>
       </c>
       <c r="E9" t="n">
-        <v>229.6981394097224</v>
+        <v>286.2504045580324</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>177.290524740537</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>70.30041205487569</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4889,46 +4889,46 @@
         <v>224.0250799426506</v>
       </c>
       <c r="L9" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M9" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N9" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O9" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U9" t="n">
-        <v>1290.825685588886</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V9" t="n">
-        <v>1077.11415858192</v>
+        <v>1346.899591993901</v>
       </c>
       <c r="W9" t="n">
-        <v>1077.11415858192</v>
+        <v>1133.66642373023</v>
       </c>
       <c r="X9" t="n">
-        <v>900.7881767208129</v>
+        <v>957.340441869123</v>
       </c>
       <c r="Y9" t="n">
-        <v>741.3862170846429</v>
+        <v>797.938482232953</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>788.5418851111901</v>
+        <v>1062.902995670987</v>
       </c>
       <c r="C10" t="n">
-        <v>788.5418851111901</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D10" t="n">
-        <v>629.0472404341001</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E10" t="n">
-        <v>629.0472404341001</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F10" t="n">
-        <v>464.4161145446914</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702348</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756915</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001761</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N10" t="n">
         <v>1029.84703862227</v>
@@ -4986,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.06237997757</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U10" t="n">
-        <v>1321.06237997757</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V10" t="n">
-        <v>1047.176634917092</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W10" t="n">
-        <v>1047.176634917092</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.176634917092</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.2415915052345</v>
+        <v>1250.602702065032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.32267273697</v>
+        <v>2539.231170109251</v>
       </c>
       <c r="C11" t="n">
-        <v>1818.19808205024</v>
+        <v>2129.106579422521</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.7341521433</v>
+        <v>1724.642649515582</v>
       </c>
       <c r="E11" t="n">
-        <v>999.3939366601969</v>
+        <v>1310.302434032479</v>
       </c>
       <c r="F11" t="n">
-        <v>578.3635246138845</v>
+        <v>889.2720219861664</v>
       </c>
       <c r="G11" t="n">
-        <v>169.6352405067166</v>
+        <v>480.5437378789985</v>
       </c>
       <c r="H11" t="n">
-        <v>169.6352405067166</v>
+        <v>169.6352405067165</v>
       </c>
       <c r="I11" t="n">
-        <v>83.28347782378975</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J11" t="n">
-        <v>337.468949291544</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="K11" t="n">
-        <v>387.5776769257639</v>
+        <v>621.4429789328292</v>
       </c>
       <c r="L11" t="n">
-        <v>1100.169076738002</v>
+        <v>1334.034378745067</v>
       </c>
       <c r="M11" t="n">
-        <v>1876.487667729756</v>
+        <v>2110.352969736821</v>
       </c>
       <c r="N11" t="n">
-        <v>2629.668684368374</v>
+        <v>2670.225330057936</v>
       </c>
       <c r="O11" t="n">
-        <v>3273.299540785479</v>
+        <v>3313.856186475041</v>
       </c>
       <c r="P11" t="n">
-        <v>3802.45623870463</v>
+        <v>3843.012884394192</v>
       </c>
       <c r="Q11" t="n">
-        <v>4123.617245499922</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="R11" t="n">
-        <v>4164.173891189487</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="S11" t="n">
-        <v>4028.892815983588</v>
+        <v>4028.892815983585</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.686331930447</v>
+        <v>3806.686331930444</v>
       </c>
       <c r="U11" t="n">
-        <v>3549.625840189957</v>
+        <v>3806.686331930444</v>
       </c>
       <c r="V11" t="n">
-        <v>3199.788285526438</v>
+        <v>3456.848777266925</v>
       </c>
       <c r="W11" t="n">
-        <v>3039.480525453369</v>
+        <v>3073.088476402093</v>
       </c>
       <c r="X11" t="n">
-        <v>3039.480525453369</v>
+        <v>3073.088476402093</v>
       </c>
       <c r="Y11" t="n">
-        <v>2638.543852401459</v>
+        <v>2949.452349773741</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>174.7792821678335</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0320692035496</v>
+        <v>104.0320692035495</v>
       </c>
       <c r="I12" t="n">
-        <v>83.28347782378975</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J12" t="n">
-        <v>83.28347782378975</v>
+        <v>276.0963353864229</v>
       </c>
       <c r="K12" t="n">
-        <v>83.28347782378975</v>
+        <v>731.9025916517217</v>
       </c>
       <c r="L12" t="n">
-        <v>582.8385024338288</v>
+        <v>731.9025916517217</v>
       </c>
       <c r="M12" t="n">
-        <v>1425.815583128395</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="N12" t="n">
-        <v>1425.815583128395</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.77267367429</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="P12" t="n">
-        <v>2129.77267367429</v>
+        <v>1750.368689627676</v>
       </c>
       <c r="Q12" t="n">
-        <v>2129.77267367429</v>
+        <v>2100.21315431166</v>
       </c>
       <c r="R12" t="n">
         <v>2129.77267367429</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.7155919711724</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="C13" t="n">
-        <v>265.7155919711724</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="D13" t="n">
-        <v>265.7155919711724</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="E13" t="n">
-        <v>265.7155919711724</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="F13" t="n">
-        <v>265.7155919711724</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="G13" t="n">
-        <v>265.7155919711724</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="H13" t="n">
-        <v>199.6295237194636</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I13" t="n">
-        <v>83.28347782378975</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J13" t="n">
-        <v>97.36602722900028</v>
+        <v>97.36602722900022</v>
       </c>
       <c r="K13" t="n">
-        <v>251.9183549512383</v>
+        <v>251.9183549512382</v>
       </c>
       <c r="L13" t="n">
         <v>511.8154552312988</v>
@@ -5223,28 +5223,28 @@
         <v>1612.68237444464</v>
       </c>
       <c r="R13" t="n">
-        <v>1527.409656120039</v>
+        <v>1612.68237444464</v>
       </c>
       <c r="S13" t="n">
-        <v>1341.01788799995</v>
+        <v>1426.29060632455</v>
       </c>
       <c r="T13" t="n">
-        <v>1101.469148976652</v>
+        <v>1186.741867301252</v>
       </c>
       <c r="U13" t="n">
-        <v>818.6710015227761</v>
+        <v>903.9437198473763</v>
       </c>
       <c r="V13" t="n">
-        <v>544.7852564622981</v>
+        <v>630.0579747868983</v>
       </c>
       <c r="W13" t="n">
-        <v>265.7155919711724</v>
+        <v>630.0579747868983</v>
       </c>
       <c r="X13" t="n">
-        <v>265.7155919711724</v>
+        <v>391.7141126465817</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.7155919711724</v>
+        <v>166.9784140353464</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.767240202312</v>
+        <v>2452.879407426325</v>
       </c>
       <c r="C14" t="n">
-        <v>1724.642649515582</v>
+        <v>2042.754816739595</v>
       </c>
       <c r="D14" t="n">
-        <v>1724.642649515582</v>
+        <v>1638.290886832655</v>
       </c>
       <c r="E14" t="n">
-        <v>1310.302434032479</v>
+        <v>1223.950671349552</v>
       </c>
       <c r="F14" t="n">
-        <v>889.2720219861665</v>
+        <v>802.9202593032395</v>
       </c>
       <c r="G14" t="n">
-        <v>480.5437378789986</v>
+        <v>394.1919751960717</v>
       </c>
       <c r="H14" t="n">
-        <v>169.6352405067166</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I14" t="n">
-        <v>83.28347782378975</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J14" t="n">
-        <v>83.28347782378975</v>
+        <v>337.468949291544</v>
       </c>
       <c r="K14" t="n">
-        <v>621.4429789328293</v>
+        <v>875.6284504005835</v>
       </c>
       <c r="L14" t="n">
-        <v>1100.169076738002</v>
+        <v>1100.169076737999</v>
       </c>
       <c r="M14" t="n">
-        <v>1876.487667729756</v>
+        <v>1876.487667729753</v>
       </c>
       <c r="N14" t="n">
-        <v>2629.668684368374</v>
+        <v>2629.668684368371</v>
       </c>
       <c r="O14" t="n">
-        <v>3273.299540785479</v>
+        <v>3273.299540785476</v>
       </c>
       <c r="P14" t="n">
-        <v>3802.45623870463</v>
+        <v>3802.456238704628</v>
       </c>
       <c r="Q14" t="n">
-        <v>4123.617245499922</v>
+        <v>4123.61724549992</v>
       </c>
       <c r="R14" t="n">
-        <v>4164.173891189487</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="S14" t="n">
-        <v>4028.892815983588</v>
+        <v>4117.486754967745</v>
       </c>
       <c r="T14" t="n">
-        <v>4028.892815983588</v>
+        <v>3895.280270914604</v>
       </c>
       <c r="U14" t="n">
-        <v>4028.892815983588</v>
+        <v>3638.219779174114</v>
       </c>
       <c r="V14" t="n">
-        <v>3679.055261320069</v>
+        <v>3638.219779174114</v>
       </c>
       <c r="W14" t="n">
-        <v>3295.294960455237</v>
+        <v>3254.459478309282</v>
       </c>
       <c r="X14" t="n">
-        <v>2894.65156262419</v>
+        <v>2853.816080478235</v>
       </c>
       <c r="Y14" t="n">
-        <v>2493.71488957228</v>
+        <v>2452.879407426325</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>174.7792821678335</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0320692035496</v>
+        <v>104.0320692035495</v>
       </c>
       <c r="I15" t="n">
-        <v>83.28347782378975</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J15" t="n">
-        <v>276.096335386423</v>
+        <v>276.0963353864229</v>
       </c>
       <c r="K15" t="n">
-        <v>276.096335386423</v>
+        <v>731.9025916517217</v>
       </c>
       <c r="L15" t="n">
-        <v>276.096335386423</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="M15" t="n">
-        <v>1119.07341608099</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="N15" t="n">
-        <v>1425.815583128395</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.77267367429</v>
+        <v>1188.662797139146</v>
       </c>
       <c r="P15" t="n">
-        <v>2129.77267367429</v>
+        <v>1750.368689627676</v>
       </c>
       <c r="Q15" t="n">
-        <v>2129.77267367429</v>
+        <v>2100.21315431166</v>
       </c>
       <c r="R15" t="n">
         <v>2129.77267367429</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.617328124926</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="C16" t="n">
-        <v>1001.523955686643</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="D16" t="n">
-        <v>842.0293110095529</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="E16" t="n">
-        <v>681.1184958778723</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="F16" t="n">
-        <v>516.4873699884636</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="G16" t="n">
-        <v>349.236978914007</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="H16" t="n">
-        <v>199.6295237194636</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I16" t="n">
-        <v>83.28347782378975</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J16" t="n">
-        <v>97.36602722900028</v>
+        <v>97.36602722900022</v>
       </c>
       <c r="K16" t="n">
-        <v>251.9183549512383</v>
+        <v>251.9183549512382</v>
       </c>
       <c r="L16" t="n">
         <v>511.8154552312988</v>
@@ -5466,22 +5466,22 @@
         <v>1612.68237444464</v>
       </c>
       <c r="T16" t="n">
-        <v>1612.68237444464</v>
+        <v>1373.133635421342</v>
       </c>
       <c r="U16" t="n">
-        <v>1360.317034518971</v>
+        <v>1090.335487967466</v>
       </c>
       <c r="V16" t="n">
-        <v>1360.317034518971</v>
+        <v>816.4497429069881</v>
       </c>
       <c r="W16" t="n">
-        <v>1360.317034518971</v>
+        <v>537.3800784158625</v>
       </c>
       <c r="X16" t="n">
-        <v>1360.317034518971</v>
+        <v>299.0362162755459</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.317034518971</v>
+        <v>83.2834778237897</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C17" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D17" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E17" t="n">
-        <v>1311.163691508387</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F17" t="n">
-        <v>890.1332794620744</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G17" t="n">
         <v>481.7597139735719</v>
       </c>
       <c r="H17" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I17" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J17" t="n">
-        <v>385.5001609893746</v>
+        <v>385.5001609893754</v>
       </c>
       <c r="K17" t="n">
-        <v>967.8832819716192</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L17" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M17" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N17" t="n">
         <v>3387.917397531933</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P17" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q17" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R17" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S17" t="n">
         <v>4963.177351211883</v>
       </c>
       <c r="T17" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U17" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V17" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W17" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X17" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y17" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3727.019688056402</v>
+        <v>772.0810953693212</v>
       </c>
       <c r="C18" t="n">
-        <v>3593.024616805347</v>
+        <v>638.086024118267</v>
       </c>
       <c r="D18" t="n">
-        <v>3476.12745902474</v>
+        <v>521.1888663376594</v>
       </c>
       <c r="E18" t="n">
-        <v>3355.634643017068</v>
+        <v>400.6960503299874</v>
       </c>
       <c r="F18" t="n">
-        <v>3246.674763199573</v>
+        <v>291.736170512492</v>
       </c>
       <c r="G18" t="n">
-        <v>3139.874441706908</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H18" t="n">
-        <v>3070.960212106565</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I18" t="n">
-        <v>3056.746098204979</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J18" t="n">
-        <v>3056.746098204979</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K18" t="n">
-        <v>3542.589592451599</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L18" t="n">
-        <v>4244.066537662176</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="M18" t="n">
-        <v>4452.040075410954</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="N18" t="n">
-        <v>4452.040075410954</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O18" t="n">
-        <v>4452.040075410954</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P18" t="n">
-        <v>5049.266549892335</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q18" t="n">
-        <v>5049.266549892335</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R18" t="n">
-        <v>5090.37527589493</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="S18" t="n">
-        <v>4985.910554177401</v>
+        <v>2030.97196149032</v>
       </c>
       <c r="T18" t="n">
-        <v>4827.333682058988</v>
+        <v>1872.395089371907</v>
       </c>
       <c r="U18" t="n">
-        <v>4629.995357459903</v>
+        <v>1675.056764772823</v>
       </c>
       <c r="V18" t="n">
-        <v>4416.283830452937</v>
+        <v>1461.345237765856</v>
       </c>
       <c r="W18" t="n">
-        <v>4203.050662189265</v>
+        <v>1248.112069502185</v>
       </c>
       <c r="X18" t="n">
-        <v>4026.724680328158</v>
+        <v>1071.786087641078</v>
       </c>
       <c r="Y18" t="n">
-        <v>3867.322720691988</v>
+        <v>912.3841280049079</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>594.2216419013449</v>
+        <v>289.2312965447617</v>
       </c>
       <c r="C19" t="n">
-        <v>423.1282694630614</v>
+        <v>289.2312965447617</v>
       </c>
       <c r="D19" t="n">
-        <v>410.9111027498188</v>
+        <v>289.2312965447617</v>
       </c>
       <c r="E19" t="n">
-        <v>250.0002876181383</v>
+        <v>289.2312965447617</v>
       </c>
       <c r="F19" t="n">
-        <v>250.0002876181383</v>
+        <v>124.600170655353</v>
       </c>
       <c r="G19" t="n">
-        <v>250.0002876181383</v>
+        <v>124.600170655353</v>
       </c>
       <c r="H19" t="n">
         <v>101.8075055178986</v>
@@ -5697,28 +5697,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R19" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S19" t="n">
-        <v>1524.070573538067</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T19" t="n">
-        <v>1524.070573538067</v>
+        <v>1363.320036714519</v>
       </c>
       <c r="U19" t="n">
-        <v>1524.070573538067</v>
+        <v>1080.530568236682</v>
       </c>
       <c r="V19" t="n">
-        <v>1524.070573538067</v>
+        <v>806.644823176204</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.000909046941</v>
+        <v>527.5751586850783</v>
       </c>
       <c r="X19" t="n">
-        <v>1006.657046906625</v>
+        <v>289.2312965447617</v>
       </c>
       <c r="Y19" t="n">
-        <v>781.9213482953893</v>
+        <v>289.2312965447617</v>
       </c>
     </row>
     <row r="20">
@@ -5743,46 +5743,46 @@
         <v>890.1332794620744</v>
       </c>
       <c r="G20" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H20" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I20" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J20" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K20" t="n">
-        <v>967.8832819716192</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L20" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M20" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N20" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P20" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q20" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R20" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S20" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T20" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U20" t="n">
         <v>4485.491533660957</v>
@@ -5822,37 +5822,37 @@
         <v>291.736170512492</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H21" t="n">
-        <v>116.0216194194846</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I21" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K21" t="n">
-        <v>101.8075055178986</v>
+        <v>798.038133975322</v>
       </c>
       <c r="L21" t="n">
-        <v>803.2844507284746</v>
+        <v>798.038133975322</v>
       </c>
       <c r="M21" t="n">
-        <v>1693.393324838609</v>
+        <v>798.038133975322</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.393324838609</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O21" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P21" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q21" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R21" t="n">
         <v>2135.43668320785</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>760.3976142787002</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="C22" t="n">
-        <v>589.3042418404167</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="D22" t="n">
-        <v>429.8095971633267</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="E22" t="n">
-        <v>268.8987820316462</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="F22" t="n">
-        <v>268.8987820316462</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="G22" t="n">
-        <v>101.8075055178986</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="H22" t="n">
-        <v>101.8075055178986</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I22" t="n">
         <v>101.8075055178986</v>
@@ -5913,13 +5913,13 @@
         <v>126.9155913163374</v>
       </c>
       <c r="K22" t="n">
-        <v>299.5862622435974</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L22" t="n">
-        <v>582.6686038988482</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M22" t="n">
-        <v>896.3782465587622</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N22" t="n">
         <v>1201.081353770707</v>
@@ -5940,22 +5940,22 @@
         <v>1785.807757890522</v>
       </c>
       <c r="T22" t="n">
-        <v>1785.807757890522</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U22" t="n">
-        <v>1503.018289412684</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V22" t="n">
-        <v>1503.018289412684</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.176881424296</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.83301928398</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.0973206727446</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C23" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E23" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F23" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G23" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H23" t="n">
-        <v>174.4839786547033</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I23" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J23" t="n">
-        <v>385.5001609893746</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K23" t="n">
-        <v>967.8832819716192</v>
+        <v>967.8832819716199</v>
       </c>
       <c r="L23" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M23" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N23" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O23" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P23" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q23" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R23" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S23" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T23" t="n">
-        <v>4742.523647911952</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U23" t="n">
-        <v>4485.491533660956</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V23" t="n">
-        <v>4135.653978997437</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W23" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X23" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>291.736170512492</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H24" t="n">
-        <v>116.0216194194846</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I24" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K24" t="n">
-        <v>101.8075055178986</v>
+        <v>798.038133975322</v>
       </c>
       <c r="L24" t="n">
-        <v>803.2844507284746</v>
+        <v>798.7016002830053</v>
       </c>
       <c r="M24" t="n">
-        <v>1693.393324838609</v>
+        <v>798.7016002830053</v>
       </c>
       <c r="N24" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="P24" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q24" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R24" t="n">
         <v>2135.43668320785</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.1472459153281</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C25" t="n">
-        <v>688.1472459153281</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D25" t="n">
-        <v>528.652601238238</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E25" t="n">
-        <v>528.652601238238</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F25" t="n">
-        <v>528.652601238238</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G25" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H25" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I25" t="n">
         <v>101.8075055178986</v>
@@ -6171,28 +6171,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R25" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S25" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T25" t="n">
-        <v>1285.201687637798</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U25" t="n">
-        <v>1002.412219159961</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V25" t="n">
-        <v>1002.412219159961</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W25" t="n">
-        <v>723.3425546688355</v>
+        <v>752.5867726634949</v>
       </c>
       <c r="X25" t="n">
-        <v>688.1472459153281</v>
+        <v>514.2429105231784</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.1472459153281</v>
+        <v>289.507211911943</v>
       </c>
     </row>
     <row r="26">
@@ -6232,10 +6232,10 @@
         <v>967.8832819716199</v>
       </c>
       <c r="L26" t="n">
-        <v>1735.337992756537</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M26" t="n">
-        <v>2572.7025882337</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N26" t="n">
         <v>3387.917397531934</v>
@@ -6247,22 +6247,22 @@
         <v>4669.275605250683</v>
       </c>
       <c r="Q26" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.97995043484</v>
       </c>
       <c r="R26" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.375275894932</v>
       </c>
       <c r="S26" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211885</v>
       </c>
       <c r="T26" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911955</v>
       </c>
       <c r="U26" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660958</v>
       </c>
       <c r="V26" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997439</v>
       </c>
       <c r="W26" t="n">
         <v>3751.893678132606</v>
@@ -6305,28 +6305,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K27" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8075055178986</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="M27" t="n">
-        <v>991.9163796280334</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N27" t="n">
-        <v>1913.953703481901</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P27" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q27" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R27" t="n">
         <v>2135.43668320785</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>588.1849365701694</v>
+        <v>299.2836127154843</v>
       </c>
       <c r="C28" t="n">
-        <v>417.0915641318859</v>
+        <v>128.1902402772008</v>
       </c>
       <c r="D28" t="n">
-        <v>417.0915641318859</v>
+        <v>128.1902402772008</v>
       </c>
       <c r="E28" t="n">
-        <v>417.0915641318859</v>
+        <v>128.1902402772008</v>
       </c>
       <c r="F28" t="n">
-        <v>417.0915641318859</v>
+        <v>128.1902402772008</v>
       </c>
       <c r="G28" t="n">
-        <v>250.0002876181383</v>
+        <v>128.1902402772008</v>
       </c>
       <c r="H28" t="n">
         <v>101.8075055178986</v>
@@ -6387,13 +6387,13 @@
         <v>126.9155913163374</v>
       </c>
       <c r="K28" t="n">
-        <v>299.5862622435974</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L28" t="n">
-        <v>582.6686038988482</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M28" t="n">
-        <v>896.3782465587622</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N28" t="n">
         <v>1201.081353770707</v>
@@ -6408,28 +6408,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R28" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T28" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.281105060229</v>
+        <v>1503.018289412684</v>
       </c>
       <c r="V28" t="n">
-        <v>967.3953599997515</v>
+        <v>1229.132544352206</v>
       </c>
       <c r="W28" t="n">
-        <v>967.3953599997515</v>
+        <v>950.0628798610805</v>
       </c>
       <c r="X28" t="n">
-        <v>729.0514978594349</v>
+        <v>711.719017720764</v>
       </c>
       <c r="Y28" t="n">
-        <v>729.0514978594349</v>
+        <v>486.9833191095287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C29" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D29" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E29" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F29" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G29" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H29" t="n">
-        <v>174.4839786547033</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I29" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J29" t="n">
-        <v>385.5001609893746</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K29" t="n">
-        <v>967.8832819716192</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L29" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M29" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N29" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O29" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P29" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q29" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R29" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S29" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T29" t="n">
-        <v>4742.523647911952</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U29" t="n">
-        <v>4485.491533660956</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V29" t="n">
-        <v>4135.653978997437</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W29" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X29" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>291.736170512492</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H30" t="n">
-        <v>116.0216194194846</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I30" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.038133975322</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.038133975322</v>
       </c>
       <c r="M30" t="n">
-        <v>465.184723414037</v>
+        <v>798.038133975322</v>
       </c>
       <c r="N30" t="n">
-        <v>1387.222047267905</v>
+        <v>798.038133975322</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P30" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q30" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R30" t="n">
         <v>2135.43668320785</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>859.1581191034375</v>
+        <v>338.3813429940045</v>
       </c>
       <c r="C31" t="n">
-        <v>859.1581191034375</v>
+        <v>338.3813429940045</v>
       </c>
       <c r="D31" t="n">
-        <v>854.1945422593274</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="E31" t="n">
-        <v>693.2837271276468</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="F31" t="n">
-        <v>528.652601238238</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="G31" t="n">
-        <v>361.5613247244904</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="H31" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I31" t="n">
         <v>101.8075055178986</v>
@@ -6645,28 +6645,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R31" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.070573538067</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T31" t="n">
-        <v>1285.201687637798</v>
+        <v>1363.320036714519</v>
       </c>
       <c r="U31" t="n">
-        <v>1285.201687637798</v>
+        <v>1080.530568236682</v>
       </c>
       <c r="V31" t="n">
-        <v>1285.201687637798</v>
+        <v>1080.530568236682</v>
       </c>
       <c r="W31" t="n">
-        <v>1285.201687637798</v>
+        <v>801.4609037455564</v>
       </c>
       <c r="X31" t="n">
-        <v>1046.857825497482</v>
+        <v>563.1170416052398</v>
       </c>
       <c r="Y31" t="n">
-        <v>1046.857825497482</v>
+        <v>338.3813429940045</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C32" t="n">
         <v>2129.967836898429</v>
       </c>
       <c r="D32" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E32" t="n">
         <v>1311.163691508386</v>
       </c>
       <c r="F32" t="n">
-        <v>890.1332794620739</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G32" t="n">
         <v>481.7597139735719</v>
       </c>
       <c r="H32" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I32" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J32" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K32" t="n">
         <v>967.8832819716195</v>
@@ -6712,25 +6712,25 @@
         <v>2572.702588233699</v>
       </c>
       <c r="N32" t="n">
-        <v>3387.917397531932</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.125005286253</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P32" t="n">
-        <v>4669.27560525068</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q32" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.97995043484</v>
       </c>
       <c r="R32" t="n">
-        <v>5090.375275894929</v>
+        <v>5090.375275894932</v>
       </c>
       <c r="S32" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211886</v>
       </c>
       <c r="T32" t="n">
-        <v>4742.523647911952</v>
+        <v>4742.523647911956</v>
       </c>
       <c r="U32" t="n">
         <v>4485.491533660957</v>
@@ -6742,7 +6742,7 @@
         <v>3751.893678132606</v>
       </c>
       <c r="X32" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y32" t="n">
         <v>2950.313607249648</v>
@@ -6770,37 +6770,37 @@
         <v>291.736170512492</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H33" t="n">
-        <v>116.0216194194846</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I33" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K33" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="M33" t="n">
-        <v>991.9163796280333</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="N33" t="n">
-        <v>1913.953703481901</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P33" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R33" t="n">
         <v>2135.43668320785</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3714.062450299636</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="C34" t="n">
-        <v>3714.062450299636</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="D34" t="n">
-        <v>3554.567805622546</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="E34" t="n">
-        <v>3554.567805622546</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="F34" t="n">
-        <v>3554.567805622546</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G34" t="n">
-        <v>3554.567805622546</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H34" t="n">
-        <v>3406.375023522306</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I34" t="n">
-        <v>3406.375023522306</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J34" t="n">
-        <v>3431.483109320745</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K34" t="n">
-        <v>3604.153780248005</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L34" t="n">
-        <v>3887.236121903255</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M34" t="n">
-        <v>4200.945764563169</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N34" t="n">
-        <v>4505.648871775114</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O34" t="n">
-        <v>4787.25204862363</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P34" t="n">
-        <v>5011.788712503885</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q34" t="n">
-        <v>5090.375275894929</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R34" t="n">
-        <v>5090.375275894929</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S34" t="n">
-        <v>4906.756440619196</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T34" t="n">
-        <v>4667.887554718927</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U34" t="n">
-        <v>4419.175683325123</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V34" t="n">
-        <v>4419.175683325123</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W34" t="n">
-        <v>4140.106018833997</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X34" t="n">
-        <v>3901.76215669368</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y34" t="n">
-        <v>3901.76215669368</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C35" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D35" t="n">
         <v>1725.503906991489</v>
@@ -6940,22 +6940,22 @@
         <v>385.5001609893749</v>
       </c>
       <c r="K35" t="n">
-        <v>967.8832819716199</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L35" t="n">
-        <v>1735.337992756537</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M35" t="n">
-        <v>2572.7025882337</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N35" t="n">
         <v>3387.917397531934</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.125005286256</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P35" t="n">
-        <v>4669.275605250683</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q35" t="n">
         <v>5027.979950434839</v>
@@ -6964,25 +6964,25 @@
         <v>5090.375275894931</v>
       </c>
       <c r="S35" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T35" t="n">
-        <v>4742.523647911952</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U35" t="n">
-        <v>4485.491533660956</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V35" t="n">
-        <v>4135.653978997437</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W35" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X35" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8075055178986</v>
+        <v>798.038133975322</v>
       </c>
       <c r="L36" t="n">
-        <v>803.2844507284747</v>
+        <v>798.038133975322</v>
       </c>
       <c r="M36" t="n">
-        <v>803.2844507284747</v>
+        <v>798.038133975322</v>
       </c>
       <c r="N36" t="n">
-        <v>803.2844507284747</v>
+        <v>1720.07545782919</v>
       </c>
       <c r="O36" t="n">
-        <v>1538.210208726469</v>
+        <v>1720.07545782919</v>
       </c>
       <c r="P36" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q36" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R36" t="n">
         <v>2135.43668320785</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>408.8649700328079</v>
+        <v>528.652601238238</v>
       </c>
       <c r="C37" t="n">
-        <v>408.8649700328079</v>
+        <v>528.652601238238</v>
       </c>
       <c r="D37" t="n">
-        <v>249.370325355718</v>
+        <v>528.652601238238</v>
       </c>
       <c r="E37" t="n">
-        <v>249.370325355718</v>
+        <v>528.652601238238</v>
       </c>
       <c r="F37" t="n">
-        <v>101.8075055178986</v>
+        <v>528.652601238238</v>
       </c>
       <c r="G37" t="n">
-        <v>101.8075055178986</v>
+        <v>361.5613247244905</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8075055178986</v>
+        <v>213.3685426242508</v>
       </c>
       <c r="I37" t="n">
         <v>101.8075055178986</v>
@@ -7119,28 +7119,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R37" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S37" t="n">
-        <v>1707.689408813801</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T37" t="n">
-        <v>1707.689408813801</v>
+        <v>1363.320036714519</v>
       </c>
       <c r="U37" t="n">
-        <v>1424.899940335963</v>
+        <v>1319.951872930158</v>
       </c>
       <c r="V37" t="n">
-        <v>1151.014195275485</v>
+        <v>1046.06612786968</v>
       </c>
       <c r="W37" t="n">
-        <v>871.9445307843598</v>
+        <v>766.9964633785546</v>
       </c>
       <c r="X37" t="n">
-        <v>633.6006686440433</v>
+        <v>528.652601238238</v>
       </c>
       <c r="Y37" t="n">
-        <v>408.8649700328079</v>
+        <v>528.652601238238</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C38" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D38" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E38" t="n">
-        <v>1311.163691508387</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F38" t="n">
-        <v>890.1332794620744</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G38" t="n">
         <v>481.7597139735719</v>
@@ -7174,7 +7174,7 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J38" t="n">
-        <v>385.5001609893749</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K38" t="n">
         <v>967.8832819716195</v>
@@ -7207,19 +7207,19 @@
         <v>4742.523647911954</v>
       </c>
       <c r="U38" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V38" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W38" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X38" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y38" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="39">
@@ -7253,16 +7253,16 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J39" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K39" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="L39" t="n">
-        <v>803.2844507284748</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="M39" t="n">
-        <v>1123.512449655492</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="N39" t="n">
         <v>1123.512449655492</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.8075055178986</v>
+        <v>576.5862088089759</v>
       </c>
       <c r="C40" t="n">
-        <v>101.8075055178986</v>
+        <v>576.5862088089759</v>
       </c>
       <c r="D40" t="n">
-        <v>101.8075055178986</v>
+        <v>417.0915641318859</v>
       </c>
       <c r="E40" t="n">
-        <v>101.8075055178986</v>
+        <v>417.0915641318859</v>
       </c>
       <c r="F40" t="n">
-        <v>101.8075055178986</v>
+        <v>417.0915641318859</v>
       </c>
       <c r="G40" t="n">
-        <v>101.8075055178986</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="H40" t="n">
         <v>101.8075055178986</v>
@@ -7356,28 +7356,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R40" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S40" t="n">
-        <v>1639.50083019916</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T40" t="n">
-        <v>1400.631944298892</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.842475821054</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V40" t="n">
-        <v>843.9567307605762</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W40" t="n">
-        <v>564.8870662694505</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X40" t="n">
-        <v>326.5432041291339</v>
+        <v>576.5862088089759</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.8075055178986</v>
+        <v>576.5862088089759</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.292664572181</v>
+        <v>1961.74267086269</v>
       </c>
       <c r="C41" t="n">
-        <v>1804.168073885452</v>
+        <v>1551.61808017596</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.704143978512</v>
+        <v>1327.027670841707</v>
       </c>
       <c r="E41" t="n">
-        <v>985.3639284954088</v>
+        <v>912.687455358604</v>
       </c>
       <c r="F41" t="n">
-        <v>564.3335164490964</v>
+        <v>491.6570433122915</v>
       </c>
       <c r="G41" t="n">
-        <v>155.9599509605945</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="H41" t="n">
-        <v>155.9599509605945</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I41" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J41" t="n">
-        <v>366.976133295266</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="K41" t="n">
-        <v>949.3592542775106</v>
+        <v>665.6665988060342</v>
       </c>
       <c r="L41" t="n">
-        <v>1716.813965062427</v>
+        <v>1433.12130959095</v>
       </c>
       <c r="M41" t="n">
-        <v>2554.17856053959</v>
+        <v>2270.485905068114</v>
       </c>
       <c r="N41" t="n">
-        <v>3369.393369837825</v>
+        <v>3085.700714366348</v>
       </c>
       <c r="O41" t="n">
-        <v>3369.393369837825</v>
+        <v>3787.90832212067</v>
       </c>
       <c r="P41" t="n">
-        <v>3948.543969802252</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="Q41" t="n">
-        <v>4101.778565729396</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="R41" t="n">
-        <v>4164.173891189488</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="S41" t="n">
-        <v>4164.173891189488</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="T41" t="n">
-        <v>4032.963584034144</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="U41" t="n">
-        <v>3775.931469783147</v>
+        <v>3907.141776938488</v>
       </c>
       <c r="V41" t="n">
-        <v>3426.093915119628</v>
+        <v>3557.304222274969</v>
       </c>
       <c r="W41" t="n">
-        <v>3426.093915119628</v>
+        <v>3173.543921410137</v>
       </c>
       <c r="X41" t="n">
-        <v>3025.450517288581</v>
+        <v>2772.90052357909</v>
       </c>
       <c r="Y41" t="n">
-        <v>2624.513844236671</v>
+        <v>2371.96385052718</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>273.2121428183831</v>
       </c>
       <c r="G42" t="n">
-        <v>166.4118213257185</v>
+        <v>166.4118213257184</v>
       </c>
       <c r="H42" t="n">
-        <v>97.4975917253758</v>
+        <v>97.49759172537573</v>
       </c>
       <c r="I42" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J42" t="n">
-        <v>293.6706120345925</v>
+        <v>293.6706120345924</v>
       </c>
       <c r="K42" t="n">
         <v>779.5141062812131</v>
       </c>
       <c r="L42" t="n">
-        <v>1480.991051491789</v>
+        <v>1104.988421961383</v>
       </c>
       <c r="M42" t="n">
-        <v>2116.912655513741</v>
+        <v>1104.988421961383</v>
       </c>
       <c r="N42" t="n">
-        <v>2116.912655513741</v>
+        <v>1104.988421961383</v>
       </c>
       <c r="O42" t="n">
-        <v>2116.912655513741</v>
+        <v>1104.988421961383</v>
       </c>
       <c r="P42" t="n">
-        <v>2116.912655513741</v>
+        <v>1702.214896442764</v>
       </c>
       <c r="Q42" t="n">
-        <v>2116.912655513741</v>
+        <v>2075.803929511146</v>
       </c>
       <c r="R42" t="n">
         <v>2116.912655513741</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1166.258531680592</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="C43" t="n">
-        <v>995.1651592423084</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="D43" t="n">
-        <v>835.6705145652184</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="E43" t="n">
-        <v>674.7596994335379</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="F43" t="n">
-        <v>510.1285735441292</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="G43" t="n">
-        <v>343.0372970303816</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="H43" t="n">
-        <v>194.8445149301419</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I43" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J43" t="n">
         <v>108.3915636222285</v>
@@ -7593,28 +7593,28 @@
         <v>1767.283730196413</v>
       </c>
       <c r="R43" t="n">
-        <v>1689.165381119692</v>
+        <v>1767.283730196413</v>
       </c>
       <c r="S43" t="n">
-        <v>1689.165381119692</v>
+        <v>1767.283730196413</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.165381119692</v>
+        <v>1528.414844296144</v>
       </c>
       <c r="U43" t="n">
-        <v>1633.027902565762</v>
+        <v>1245.625375818307</v>
       </c>
       <c r="V43" t="n">
-        <v>1633.027902565762</v>
+        <v>971.739630757829</v>
       </c>
       <c r="W43" t="n">
-        <v>1353.958238074636</v>
+        <v>692.6699662667033</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.958238074636</v>
+        <v>454.3261041263867</v>
       </c>
       <c r="Y43" t="n">
-        <v>1353.958238074636</v>
+        <v>270.9831842178341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2521.56839989105</v>
+        <v>2218.774785113686</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.44380920432</v>
+        <v>1808.650194426957</v>
       </c>
       <c r="D44" t="n">
-        <v>1706.979879297381</v>
+        <v>1404.186264520017</v>
       </c>
       <c r="E44" t="n">
-        <v>1292.639663814277</v>
+        <v>989.8460490369139</v>
       </c>
       <c r="F44" t="n">
-        <v>871.6092517679649</v>
+        <v>568.8156369906014</v>
       </c>
       <c r="G44" t="n">
-        <v>463.235686279463</v>
+        <v>160.4420715020996</v>
       </c>
       <c r="H44" t="n">
-        <v>155.9599509605945</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I44" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J44" t="n">
-        <v>366.976133295266</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="K44" t="n">
-        <v>919.2920320245025</v>
+        <v>665.6665988060342</v>
       </c>
       <c r="L44" t="n">
-        <v>1686.746742809419</v>
+        <v>1433.12130959095</v>
       </c>
       <c r="M44" t="n">
-        <v>2524.111338286582</v>
+        <v>2270.485905068114</v>
       </c>
       <c r="N44" t="n">
-        <v>2524.111338286582</v>
+        <v>3085.700714366348</v>
       </c>
       <c r="O44" t="n">
-        <v>3226.318946040904</v>
+        <v>3787.90832212067</v>
       </c>
       <c r="P44" t="n">
-        <v>3805.469546005331</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="Q44" t="n">
-        <v>4164.173891189488</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="R44" t="n">
-        <v>4164.173891189488</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="S44" t="n">
-        <v>4164.173891189488</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="T44" t="n">
-        <v>4164.173891189488</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="U44" t="n">
-        <v>3907.141776938492</v>
+        <v>4164.173891189484</v>
       </c>
       <c r="V44" t="n">
-        <v>3907.141776938492</v>
+        <v>3814.336336525965</v>
       </c>
       <c r="W44" t="n">
-        <v>3733.369650438497</v>
+        <v>3430.576035661134</v>
       </c>
       <c r="X44" t="n">
-        <v>3332.72625260745</v>
+        <v>3029.932637830086</v>
       </c>
       <c r="Y44" t="n">
-        <v>2931.78957955554</v>
+        <v>2628.995964778176</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>273.2121428183831</v>
       </c>
       <c r="G45" t="n">
-        <v>166.4118213257185</v>
+        <v>166.4118213257184</v>
       </c>
       <c r="H45" t="n">
-        <v>97.4975917253758</v>
+        <v>97.49759172537573</v>
       </c>
       <c r="I45" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J45" t="n">
-        <v>83.28347782378977</v>
+        <v>293.6706120345924</v>
       </c>
       <c r="K45" t="n">
-        <v>569.1269720704104</v>
+        <v>779.5141062812131</v>
       </c>
       <c r="L45" t="n">
-        <v>569.1269720704104</v>
+        <v>1185.695055401011</v>
       </c>
       <c r="M45" t="n">
-        <v>569.1269720704104</v>
+        <v>2075.803929511146</v>
       </c>
       <c r="N45" t="n">
-        <v>771.471545092415</v>
+        <v>2075.803929511146</v>
       </c>
       <c r="O45" t="n">
-        <v>1519.68618103236</v>
+        <v>2075.803929511146</v>
       </c>
       <c r="P45" t="n">
-        <v>2116.912655513741</v>
+        <v>2075.803929511146</v>
       </c>
       <c r="Q45" t="n">
-        <v>2116.912655513741</v>
+        <v>2075.803929511146</v>
       </c>
       <c r="R45" t="n">
         <v>2116.912655513741</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>658.4748589546529</v>
+        <v>321.3514245969254</v>
       </c>
       <c r="C46" t="n">
-        <v>487.3814865163694</v>
+        <v>321.3514245969254</v>
       </c>
       <c r="D46" t="n">
-        <v>487.3814865163694</v>
+        <v>321.3514245969254</v>
       </c>
       <c r="E46" t="n">
-        <v>326.4706713846888</v>
+        <v>160.4406094652449</v>
       </c>
       <c r="F46" t="n">
-        <v>250.3747543375374</v>
+        <v>160.4406094652449</v>
       </c>
       <c r="G46" t="n">
-        <v>83.28347782378977</v>
+        <v>160.4406094652449</v>
       </c>
       <c r="H46" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="I46" t="n">
-        <v>83.28347782378977</v>
+        <v>83.2834778237897</v>
       </c>
       <c r="J46" t="n">
         <v>108.3915636222285</v>
@@ -7839,19 +7839,19 @@
         <v>1344.796009020411</v>
       </c>
       <c r="U46" t="n">
-        <v>1344.796009020411</v>
+        <v>1062.006540542573</v>
       </c>
       <c r="V46" t="n">
-        <v>1070.910263959933</v>
+        <v>788.1207954820954</v>
       </c>
       <c r="W46" t="n">
-        <v>1070.910263959933</v>
+        <v>509.0511309909698</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.910263959933</v>
+        <v>509.0511309909698</v>
       </c>
       <c r="Y46" t="n">
-        <v>846.1745653486972</v>
+        <v>509.0511309909698</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>276.5735275978785</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439669</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O3" t="n">
-        <v>402.2824097071476</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8594964393052</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
         <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>430.5035548842895</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8458,7 +8458,7 @@
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
@@ -8467,13 +8467,13 @@
         <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>210.8258052166435</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>207.6698339900124</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5176252944898</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>139.7512660714189</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8701,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>658.439927444614</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>579.0471130175646</v>
+        <v>322.2941115349819</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>363.0339661689073</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>15.31778311257859</v>
       </c>
       <c r="M18" t="n">
-        <v>220.0306921558019</v>
+        <v>9.956411601480063</v>
       </c>
       <c r="N18" t="n">
-        <v>4.325482542992638</v>
+        <v>333.087417573468</v>
       </c>
       <c r="O18" t="n">
-        <v>13.04688769287789</v>
+        <v>13.04688769287794</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9418,7 +9418,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>628.151078350734</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>15.3177831125785</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N21" t="n">
-        <v>4.325482542992638</v>
+        <v>333.0874175734671</v>
       </c>
       <c r="O21" t="n">
-        <v>459.5553304900907</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P21" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>15.98795110013739</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601479985</v>
       </c>
       <c r="N24" t="n">
-        <v>450.8339253402054</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>13.04688769287789</v>
+        <v>13.04688769287786</v>
       </c>
       <c r="P24" t="n">
-        <v>18.38025925244921</v>
+        <v>18.38025925244919</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>15.31778311257854</v>
+        <v>344.0797181430529</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601479985</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992617</v>
       </c>
       <c r="O27" t="n">
-        <v>236.7670692342405</v>
+        <v>13.04688769287786</v>
       </c>
       <c r="P27" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>15.31778311257854</v>
+        <v>15.31778311257852</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0041064460642</v>
+        <v>9.956411601479985</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992617</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>341.8088227233524</v>
       </c>
       <c r="P30" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>15.31778311257854</v>
+        <v>15.31778311257852</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601479985</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992617</v>
       </c>
       <c r="O33" t="n">
-        <v>236.7670692342405</v>
+        <v>341.8088227233523</v>
       </c>
       <c r="P33" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>15.31778311257852</v>
       </c>
       <c r="M36" t="n">
-        <v>9.956411601480006</v>
+        <v>9.956411601479985</v>
       </c>
       <c r="N36" t="n">
-        <v>4.325482542992638</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>755.3961381959024</v>
+        <v>13.04688769287786</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>19.05042724000795</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>33.6174442058894</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>25.48513835903763</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>15.3177831125785</v>
       </c>
       <c r="M39" t="n">
-        <v>333.419036780285</v>
+        <v>9.956411601479957</v>
       </c>
       <c r="N39" t="n">
-        <v>4.325482542992582</v>
+        <v>823.838421862983</v>
       </c>
       <c r="O39" t="n">
-        <v>13.04688769287783</v>
+        <v>13.04688769287784</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>43.51835496591209</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11074,16 +11074,16 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>34.02133993162482</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>423.2167037087015</v>
       </c>
       <c r="Q41" t="n">
-        <v>206.8936604984241</v>
+        <v>52.11124036999558</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>65.25287031924134</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>344.0797181430534</v>
       </c>
       <c r="M42" t="n">
-        <v>652.3014661691084</v>
+        <v>9.956411601479957</v>
       </c>
       <c r="N42" t="n">
-        <v>4.325482542992582</v>
+        <v>4.325482542992589</v>
       </c>
       <c r="O42" t="n">
-        <v>13.04688769287783</v>
+        <v>13.04688769287784</v>
       </c>
       <c r="P42" t="n">
-        <v>18.38025925244916</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.70820599534541</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>47.33433381251139</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>43.51835496591209</v>
       </c>
       <c r="K44" t="n">
-        <v>602.3609137702186</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11308,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>30.25189413074429</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>423.2167037087015</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>52.11124036999558</v>
       </c>
       <c r="R44" t="n">
         <v>65.25287031924134</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>33.6174442058894</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>15.3177831125785</v>
+        <v>425.6015701022737</v>
       </c>
       <c r="M45" t="n">
-        <v>9.95641160147995</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>208.7139401409771</v>
+        <v>4.325482542992589</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>13.04688769287784</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>18.38025925244917</v>
       </c>
       <c r="Q45" t="n">
         <v>32.70820599534541</v>
       </c>
       <c r="R45" t="n">
-        <v>47.33433381251139</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.2180153838449</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>274.5275409593219</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>102.9647224806629</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23433,10 +23433,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>82.68617307340617</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.76079499157663</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>87.70799959431773</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>30.12847945292469</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>145.8047031842088</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.4203637486101</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>124.1461157931574</v>
       </c>
       <c r="I19" t="n">
         <v>110.4454267352886</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>77.33716558595377</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.5012665511595</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H22" t="n">
         <v>146.7108542792373</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>181.7826469229764</v>
       </c>
       <c r="T22" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>185.3559739377104</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.97885091565573</v>
       </c>
       <c r="X25" t="n">
-        <v>201.1170678529411</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.36481365373109</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.5919468675281</v>
       </c>
       <c r="I28" t="n">
         <v>110.4454267352886</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T28" t="n">
         <v>236.4801970412658</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>152.9857571546501</v>
+        <v>70.40245340821154</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>18.14095621606648</v>
       </c>
       <c r="G34" t="n">
         <v>165.4203637486101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I34" t="n">
         <v>110.4454267352886</v>
@@ -25125,16 +25125,16 @@
         <v>77.33716558595376</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>33.73682111319249</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>16.89762299107349</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S37" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>237.0270916465416</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,10 +25563,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.4454267352886</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S40" t="n">
-        <v>114.2759540944822</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>102.6987162185954</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>178.0747853669597</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>71.9497084054367</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T41" t="n">
-        <v>88.54896218314053</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S43" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T43" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.3854700246682</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>40.97885091565584</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>227.815970224153</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>71.9497084054367</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>207.8882926211885</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>87.64985675383468</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H46" t="n">
-        <v>146.7108542792373</v>
+        <v>70.3252939541966</v>
       </c>
       <c r="I46" t="n">
         <v>110.4454267352886</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637511.0629090071</v>
+        <v>637511.0629090068</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637511.062909007</v>
+        <v>637511.0629090068</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717209.9630923334</v>
+        <v>717209.9630923336</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717209.9630923334</v>
+        <v>717209.9630923335</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717209.9630923334</v>
+        <v>717209.9630923336</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717209.9630923334</v>
+        <v>717209.9630923335</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717209.9630923334</v>
+        <v>717209.9630923335</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632837.0784229398</v>
+        <v>632837.0784229395</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632837.0784229398</v>
+        <v>632837.0784229395</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521223.6577038621</v>
+        <v>521223.6577038622</v>
       </c>
       <c r="C2" t="n">
+        <v>521223.6577038624</v>
+      </c>
+      <c r="D2" t="n">
         <v>521223.6577038622</v>
       </c>
-      <c r="D2" t="n">
-        <v>521223.6577038623</v>
-      </c>
       <c r="E2" t="n">
-        <v>432669.5855338224</v>
+        <v>432669.5855338223</v>
       </c>
       <c r="F2" t="n">
-        <v>432669.5855338224</v>
+        <v>432669.5855338222</v>
       </c>
       <c r="G2" t="n">
+        <v>494876.5735424003</v>
+      </c>
+      <c r="H2" t="n">
+        <v>494876.5735424001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>494876.5735424001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>494876.5735424004</v>
+      </c>
+      <c r="K2" t="n">
+        <v>494876.5735424001</v>
+      </c>
+      <c r="L2" t="n">
         <v>494876.5735424002</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>494876.5735424002</v>
       </c>
-      <c r="I2" t="n">
-        <v>494876.5735424003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>494876.5735424003</v>
-      </c>
-      <c r="K2" t="n">
-        <v>494876.5735424004</v>
-      </c>
-      <c r="L2" t="n">
-        <v>494876.5735424</v>
-      </c>
-      <c r="M2" t="n">
-        <v>494876.5735424003</v>
-      </c>
       <c r="N2" t="n">
-        <v>494876.5735424</v>
+        <v>494876.5735424002</v>
       </c>
       <c r="O2" t="n">
-        <v>437653.6883888633</v>
+        <v>437653.6883888629</v>
       </c>
       <c r="P2" t="n">
         <v>437653.6883888629</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>194341.6413486334</v>
+        <v>194341.6413486332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>131380.9934833645</v>
+        <v>131380.9934833647</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162204.5642701233</v>
+        <v>162204.564270123</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>263243.8285850549</v>
       </c>
       <c r="C4" t="n">
+        <v>263243.8285850549</v>
+      </c>
+      <c r="D4" t="n">
         <v>263243.828585055</v>
       </c>
-      <c r="D4" t="n">
-        <v>263243.8285850549</v>
-      </c>
       <c r="E4" t="n">
-        <v>124395.1961365733</v>
+        <v>124395.1961365732</v>
       </c>
       <c r="F4" t="n">
-        <v>124395.1961365733</v>
+        <v>124395.1961365732</v>
       </c>
       <c r="G4" t="n">
         <v>130337.5651587837</v>
@@ -26478,40 +26478,40 @@
         <v>57348.88900881319</v>
       </c>
       <c r="E5" t="n">
-        <v>63295.4431460802</v>
+        <v>63295.44314608016</v>
       </c>
       <c r="F5" t="n">
-        <v>63295.4431460802</v>
+        <v>63295.44314608016</v>
       </c>
       <c r="G5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908045</v>
       </c>
       <c r="H5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="I5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908045</v>
       </c>
       <c r="J5" t="n">
+        <v>79278.01907908046</v>
+      </c>
+      <c r="K5" t="n">
         <v>79278.01907908045</v>
       </c>
-      <c r="K5" t="n">
-        <v>79278.01907908043</v>
-      </c>
       <c r="L5" t="n">
-        <v>79278.01907908042</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="M5" t="n">
         <v>79278.01907908045</v>
       </c>
       <c r="N5" t="n">
-        <v>79278.01907908046</v>
+        <v>79278.01907908045</v>
       </c>
       <c r="O5" t="n">
-        <v>65199.75803155771</v>
+        <v>65199.75803155766</v>
       </c>
       <c r="P5" t="n">
-        <v>65199.75803155771</v>
+        <v>65199.75803155766</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69881.77010176209</v>
+        <v>69881.7701017622</v>
       </c>
       <c r="C6" t="n">
+        <v>200630.9401099943</v>
+      </c>
+      <c r="D6" t="n">
         <v>200630.9401099941</v>
       </c>
-      <c r="D6" t="n">
-        <v>200630.9401099942</v>
-      </c>
       <c r="E6" t="n">
-        <v>50637.30490253551</v>
+        <v>50360.57342700433</v>
       </c>
       <c r="F6" t="n">
-        <v>244978.946251169</v>
+        <v>244702.2147756374</v>
       </c>
       <c r="G6" t="n">
-        <v>153879.9958211716</v>
+        <v>153797.661183167</v>
       </c>
       <c r="H6" t="n">
-        <v>285260.9893045361</v>
+        <v>285178.6546665314</v>
       </c>
       <c r="I6" t="n">
-        <v>285260.9893045361</v>
+        <v>285178.6546665315</v>
       </c>
       <c r="J6" t="n">
-        <v>183179.8553995703</v>
+        <v>183097.5207615658</v>
       </c>
       <c r="K6" t="n">
-        <v>285260.9893045363</v>
+        <v>285178.6546665314</v>
       </c>
       <c r="L6" t="n">
-        <v>285260.9893045359</v>
+        <v>285178.6546665316</v>
       </c>
       <c r="M6" t="n">
-        <v>123056.4250344128</v>
+        <v>122974.0903964085</v>
       </c>
       <c r="N6" t="n">
-        <v>285260.9893045359</v>
+        <v>285178.6546665315</v>
       </c>
       <c r="O6" t="n">
-        <v>258646.5451384211</v>
+        <v>258385.3889843113</v>
       </c>
       <c r="P6" t="n">
-        <v>258646.5451384207</v>
+        <v>258385.3889843114</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924288</v>
       </c>
       <c r="H3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924308</v>
       </c>
       <c r="I3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924302</v>
       </c>
       <c r="J3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924302</v>
       </c>
       <c r="K3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924302</v>
       </c>
       <c r="L3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924302</v>
       </c>
       <c r="M3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924302</v>
       </c>
       <c r="N3" t="n">
-        <v>87.35389382924308</v>
+        <v>87.35389382924306</v>
       </c>
       <c r="O3" t="n">
-        <v>87.35389382924308</v>
+        <v>87.35389382924306</v>
       </c>
       <c r="P3" t="n">
-        <v>87.35389382924308</v>
+        <v>87.35389382924306</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="E4" t="n">
-        <v>1041.043472797372</v>
+        <v>1041.043472797371</v>
       </c>
       <c r="F4" t="n">
-        <v>1041.043472797372</v>
+        <v>1041.043472797371</v>
       </c>
       <c r="G4" t="n">
         <v>1272.593818973733</v>
@@ -26819,7 +26819,7 @@
         <v>1272.593818973733</v>
       </c>
       <c r="L4" t="n">
-        <v>1272.593818973732</v>
+        <v>1272.593818973733</v>
       </c>
       <c r="M4" t="n">
         <v>1272.593818973733</v>
@@ -26828,10 +26828,10 @@
         <v>1272.593818973733</v>
       </c>
       <c r="O4" t="n">
-        <v>1041.043472797372</v>
+        <v>1041.043472797371</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.043472797372</v>
+        <v>1041.043472797371</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924288</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>650.890693047155</v>
+        <v>650.8906930471542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>231.5503461763608</v>
+        <v>231.5503461763617</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>650.8906930471555</v>
+        <v>650.8906930471539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>650.890693047155</v>
+        <v>650.8906930471542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>231.5503461763608</v>
+        <v>231.5503461763617</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>57.27092566420464</v>
       </c>
       <c r="H2" t="n">
-        <v>48.31238571983607</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>131.5326550728556</v>
+        <v>82.55633334977055</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>16.10421393455036</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28.83362056170932</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>288.3315443615243</v>
       </c>
       <c r="E5" t="n">
-        <v>87.35878531436538</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27678,7 +27678,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>88.26016951102955</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -27709,10 +27709,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>68.8428191513118</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>108.0871739644553</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>305.2258987816934</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>20.04403357805535</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>38.1698598421368</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>31.34243305653136</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>192.9482786369981</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>57.06664624006484</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -28079,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.2626486473844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793681</v>
       </c>
       <c r="H17" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879329</v>
       </c>
       <c r="I17" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066085</v>
       </c>
       <c r="J17" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739579</v>
       </c>
       <c r="K17" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424745</v>
       </c>
       <c r="L17" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098793</v>
       </c>
       <c r="M17" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334288</v>
       </c>
       <c r="N17" t="n">
-        <v>62.66039662587497</v>
+        <v>62.6603966258749</v>
       </c>
       <c r="O17" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415818</v>
       </c>
       <c r="P17" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482377</v>
       </c>
       <c r="Q17" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915638</v>
       </c>
       <c r="R17" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548213</v>
       </c>
       <c r="S17" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623609</v>
       </c>
       <c r="T17" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678435</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.02809371459834944</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666734</v>
       </c>
       <c r="H18" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301819</v>
       </c>
       <c r="I18" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392044</v>
       </c>
       <c r="J18" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411058</v>
       </c>
       <c r="K18" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557769</v>
       </c>
       <c r="L18" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827046</v>
       </c>
       <c r="M18" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693736</v>
       </c>
       <c r="N18" t="n">
-        <v>48.86791085075735</v>
+        <v>48.8679108507573</v>
       </c>
       <c r="O18" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712206</v>
       </c>
       <c r="P18" t="n">
-        <v>35.87937575035454</v>
+        <v>35.8793757503545</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949325</v>
       </c>
       <c r="R18" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289399</v>
       </c>
       <c r="S18" t="n">
-        <v>3.490035286479658</v>
+        <v>3.490035286479654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.7573417776327752</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0123614000701759</v>
+        <v>0.01236140007017588</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019134</v>
       </c>
       <c r="H19" t="n">
-        <v>1.400526363360651</v>
+        <v>1.400526363360649</v>
       </c>
       <c r="I19" t="n">
-        <v>4.737158701428457</v>
+        <v>4.73715870142845</v>
       </c>
       <c r="J19" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770527</v>
       </c>
       <c r="K19" t="n">
-        <v>18.30135677274959</v>
+        <v>18.30135677274957</v>
       </c>
       <c r="L19" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251538</v>
       </c>
       <c r="M19" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274811</v>
       </c>
       <c r="N19" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373191</v>
       </c>
       <c r="O19" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913227</v>
       </c>
       <c r="P19" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105322</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.19043796821569</v>
+        <v>13.19043796821567</v>
       </c>
       <c r="R19" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400576</v>
       </c>
       <c r="S19" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912435</v>
       </c>
       <c r="T19" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990842</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286194</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H20" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I20" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J20" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K20" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L20" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M20" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N20" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O20" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P20" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q20" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R20" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S20" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T20" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H21" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I21" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J21" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K21" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L21" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M21" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N21" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O21" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P21" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R21" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S21" t="n">
-        <v>3.490035286479658</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0123614000701759</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H22" t="n">
-        <v>1.400526363360651</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I22" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J22" t="n">
-        <v>11.13690544770529</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K22" t="n">
-        <v>18.30135677274959</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L22" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M22" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N22" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O22" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P22" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R22" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S22" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T22" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793687</v>
       </c>
       <c r="H23" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879335</v>
       </c>
       <c r="I23" t="n">
         <v>13.53853665066087</v>
       </c>
       <c r="J23" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739584</v>
       </c>
       <c r="K23" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424753</v>
       </c>
       <c r="L23" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098802</v>
       </c>
       <c r="M23" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334298</v>
       </c>
       <c r="N23" t="n">
-        <v>62.66039662587497</v>
+        <v>62.660396625875</v>
       </c>
       <c r="O23" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415827</v>
       </c>
       <c r="P23" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482385</v>
       </c>
       <c r="Q23" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915645</v>
       </c>
       <c r="R23" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548216</v>
       </c>
       <c r="S23" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623622</v>
       </c>
       <c r="T23" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678437</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.02809371459834949</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666737</v>
       </c>
       <c r="H24" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301822</v>
       </c>
       <c r="I24" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392055</v>
       </c>
       <c r="J24" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K24" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557774</v>
       </c>
       <c r="L24" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827053</v>
       </c>
       <c r="M24" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693744</v>
       </c>
       <c r="N24" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075738</v>
       </c>
       <c r="O24" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712214</v>
       </c>
       <c r="P24" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035455</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949329</v>
       </c>
       <c r="R24" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S24" t="n">
-        <v>3.490035286479658</v>
+        <v>3.49003528647966</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.7573417776327764</v>
       </c>
       <c r="U24" t="n">
         <v>0.0123614000701759</v>
@@ -32864,43 +32864,43 @@
         <v>1.400526363360651</v>
       </c>
       <c r="I25" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428458</v>
       </c>
       <c r="J25" t="n">
         <v>11.13690544770529</v>
       </c>
       <c r="K25" t="n">
-        <v>18.30135677274959</v>
+        <v>18.3013567727496</v>
       </c>
       <c r="L25" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251542</v>
       </c>
       <c r="M25" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274815</v>
       </c>
       <c r="N25" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373195</v>
       </c>
       <c r="O25" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913231</v>
       </c>
       <c r="P25" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105325</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R25" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400587</v>
       </c>
       <c r="S25" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912439</v>
       </c>
       <c r="T25" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990853</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286208</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793687</v>
       </c>
       <c r="H26" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879335</v>
       </c>
       <c r="I26" t="n">
         <v>13.53853665066087</v>
       </c>
       <c r="J26" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739584</v>
       </c>
       <c r="K26" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424753</v>
       </c>
       <c r="L26" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098802</v>
       </c>
       <c r="M26" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334298</v>
       </c>
       <c r="N26" t="n">
-        <v>62.66039662587497</v>
+        <v>62.660396625875</v>
       </c>
       <c r="O26" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415827</v>
       </c>
       <c r="P26" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482385</v>
       </c>
       <c r="Q26" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915645</v>
       </c>
       <c r="R26" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548216</v>
       </c>
       <c r="S26" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623622</v>
       </c>
       <c r="T26" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678437</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.02809371459834949</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666737</v>
       </c>
       <c r="H27" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301822</v>
       </c>
       <c r="I27" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392055</v>
       </c>
       <c r="J27" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K27" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557774</v>
       </c>
       <c r="L27" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827053</v>
       </c>
       <c r="M27" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693744</v>
       </c>
       <c r="N27" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075738</v>
       </c>
       <c r="O27" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712214</v>
       </c>
       <c r="P27" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035455</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949329</v>
       </c>
       <c r="R27" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S27" t="n">
-        <v>3.490035286479658</v>
+        <v>3.49003528647966</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.7573417776327764</v>
       </c>
       <c r="U27" t="n">
         <v>0.0123614000701759</v>
@@ -33101,43 +33101,43 @@
         <v>1.400526363360651</v>
       </c>
       <c r="I28" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428458</v>
       </c>
       <c r="J28" t="n">
         <v>11.13690544770529</v>
       </c>
       <c r="K28" t="n">
-        <v>18.30135677274959</v>
+        <v>18.3013567727496</v>
       </c>
       <c r="L28" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251542</v>
       </c>
       <c r="M28" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274815</v>
       </c>
       <c r="N28" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373195</v>
       </c>
       <c r="O28" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913231</v>
       </c>
       <c r="P28" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105325</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R28" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400587</v>
       </c>
       <c r="S28" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912439</v>
       </c>
       <c r="T28" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990853</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286208</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793687</v>
       </c>
       <c r="H29" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879335</v>
       </c>
       <c r="I29" t="n">
         <v>13.53853665066087</v>
       </c>
       <c r="J29" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739584</v>
       </c>
       <c r="K29" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424753</v>
       </c>
       <c r="L29" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098802</v>
       </c>
       <c r="M29" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334298</v>
       </c>
       <c r="N29" t="n">
-        <v>62.66039662587497</v>
+        <v>62.660396625875</v>
       </c>
       <c r="O29" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415827</v>
       </c>
       <c r="P29" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482385</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915645</v>
       </c>
       <c r="R29" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548216</v>
       </c>
       <c r="S29" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623622</v>
       </c>
       <c r="T29" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678437</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.02809371459834949</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666737</v>
       </c>
       <c r="H30" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301822</v>
       </c>
       <c r="I30" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392055</v>
       </c>
       <c r="J30" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K30" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557774</v>
       </c>
       <c r="L30" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827053</v>
       </c>
       <c r="M30" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693744</v>
       </c>
       <c r="N30" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075738</v>
       </c>
       <c r="O30" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712214</v>
       </c>
       <c r="P30" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035455</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949329</v>
       </c>
       <c r="R30" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S30" t="n">
-        <v>3.490035286479658</v>
+        <v>3.49003528647966</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.7573417776327764</v>
       </c>
       <c r="U30" t="n">
         <v>0.0123614000701759</v>
@@ -33338,43 +33338,43 @@
         <v>1.400526363360651</v>
       </c>
       <c r="I31" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428458</v>
       </c>
       <c r="J31" t="n">
         <v>11.13690544770529</v>
       </c>
       <c r="K31" t="n">
-        <v>18.30135677274959</v>
+        <v>18.3013567727496</v>
       </c>
       <c r="L31" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251542</v>
       </c>
       <c r="M31" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274815</v>
       </c>
       <c r="N31" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373195</v>
       </c>
       <c r="O31" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913231</v>
       </c>
       <c r="P31" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105325</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R31" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400587</v>
       </c>
       <c r="S31" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912439</v>
       </c>
       <c r="T31" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990853</v>
       </c>
       <c r="U31" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286208</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793687</v>
       </c>
       <c r="H32" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879335</v>
       </c>
       <c r="I32" t="n">
         <v>13.53853665066087</v>
       </c>
       <c r="J32" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739584</v>
       </c>
       <c r="K32" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424753</v>
       </c>
       <c r="L32" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098802</v>
       </c>
       <c r="M32" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334298</v>
       </c>
       <c r="N32" t="n">
-        <v>62.66039662587497</v>
+        <v>62.660396625875</v>
       </c>
       <c r="O32" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415827</v>
       </c>
       <c r="P32" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482385</v>
       </c>
       <c r="Q32" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915645</v>
       </c>
       <c r="R32" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548216</v>
       </c>
       <c r="S32" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623622</v>
       </c>
       <c r="T32" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678437</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.02809371459834949</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666737</v>
       </c>
       <c r="H33" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301822</v>
       </c>
       <c r="I33" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392055</v>
       </c>
       <c r="J33" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K33" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557774</v>
       </c>
       <c r="L33" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827053</v>
       </c>
       <c r="M33" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693744</v>
       </c>
       <c r="N33" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075738</v>
       </c>
       <c r="O33" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712214</v>
       </c>
       <c r="P33" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035455</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949329</v>
       </c>
       <c r="R33" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S33" t="n">
-        <v>3.490035286479658</v>
+        <v>3.49003528647966</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.7573417776327764</v>
       </c>
       <c r="U33" t="n">
         <v>0.0123614000701759</v>
@@ -33575,43 +33575,43 @@
         <v>1.400526363360651</v>
       </c>
       <c r="I34" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428458</v>
       </c>
       <c r="J34" t="n">
         <v>11.13690544770529</v>
       </c>
       <c r="K34" t="n">
-        <v>18.30135677274959</v>
+        <v>18.3013567727496</v>
       </c>
       <c r="L34" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251542</v>
       </c>
       <c r="M34" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274815</v>
       </c>
       <c r="N34" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373195</v>
       </c>
       <c r="O34" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913231</v>
       </c>
       <c r="P34" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105325</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R34" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400587</v>
       </c>
       <c r="S34" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912439</v>
       </c>
       <c r="T34" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990853</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286208</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793687</v>
       </c>
       <c r="H35" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879335</v>
       </c>
       <c r="I35" t="n">
         <v>13.53853665066087</v>
       </c>
       <c r="J35" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739584</v>
       </c>
       <c r="K35" t="n">
-        <v>44.67032310424751</v>
+        <v>44.67032310424753</v>
       </c>
       <c r="L35" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098802</v>
       </c>
       <c r="M35" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334298</v>
       </c>
       <c r="N35" t="n">
-        <v>62.66039662587497</v>
+        <v>62.660396625875</v>
       </c>
       <c r="O35" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415827</v>
       </c>
       <c r="P35" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482385</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.92256402915643</v>
+        <v>37.92256402915645</v>
       </c>
       <c r="R35" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548216</v>
       </c>
       <c r="S35" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623622</v>
       </c>
       <c r="T35" t="n">
-        <v>1.537252945678436</v>
+        <v>1.537252945678437</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02809371459834947</v>
+        <v>0.02809371459834949</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666737</v>
       </c>
       <c r="H36" t="n">
-        <v>1.814653530301821</v>
+        <v>1.814653530301822</v>
       </c>
       <c r="I36" t="n">
-        <v>6.469132703392051</v>
+        <v>6.469132703392055</v>
       </c>
       <c r="J36" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K36" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557774</v>
       </c>
       <c r="L36" t="n">
-        <v>40.79674069827051</v>
+        <v>40.79674069827053</v>
       </c>
       <c r="M36" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693744</v>
       </c>
       <c r="N36" t="n">
-        <v>48.86791085075735</v>
+        <v>48.86791085075738</v>
       </c>
       <c r="O36" t="n">
-        <v>44.70459130712211</v>
+        <v>44.70459130712214</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035455</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.98441250949328</v>
+        <v>23.98441250949329</v>
       </c>
       <c r="R36" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S36" t="n">
-        <v>3.490035286479658</v>
+        <v>3.49003528647966</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.7573417776327764</v>
       </c>
       <c r="U36" t="n">
         <v>0.0123614000701759</v>
@@ -33812,43 +33812,43 @@
         <v>1.400526363360651</v>
       </c>
       <c r="I37" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428458</v>
       </c>
       <c r="J37" t="n">
         <v>11.13690544770529</v>
       </c>
       <c r="K37" t="n">
-        <v>18.30135677274959</v>
+        <v>18.3013567727496</v>
       </c>
       <c r="L37" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251542</v>
       </c>
       <c r="M37" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274815</v>
       </c>
       <c r="N37" t="n">
-        <v>24.10537860373193</v>
+        <v>24.10537860373195</v>
       </c>
       <c r="O37" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913231</v>
       </c>
       <c r="P37" t="n">
-        <v>19.05174104105324</v>
+        <v>19.05174104105325</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.19043796821569</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R37" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400587</v>
       </c>
       <c r="S37" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912439</v>
       </c>
       <c r="T37" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990853</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286208</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3511714324793689</v>
+        <v>0.3511714324793688</v>
       </c>
       <c r="H38" t="n">
-        <v>3.596434432879338</v>
+        <v>3.596434432879337</v>
       </c>
       <c r="I38" t="n">
         <v>13.53853665066088</v>
@@ -33897,31 +33897,31 @@
         <v>29.80523636739586</v>
       </c>
       <c r="K38" t="n">
-        <v>44.67032310424756</v>
+        <v>44.67032310424755</v>
       </c>
       <c r="L38" t="n">
-        <v>55.41748583098806</v>
+        <v>55.41748583098804</v>
       </c>
       <c r="M38" t="n">
-        <v>61.66263079334303</v>
+        <v>61.66263079334302</v>
       </c>
       <c r="N38" t="n">
-        <v>62.66039662587504</v>
+        <v>62.66039662587503</v>
       </c>
       <c r="O38" t="n">
-        <v>59.16843569415831</v>
+        <v>59.1684356941583</v>
       </c>
       <c r="P38" t="n">
-        <v>50.49889095482389</v>
+        <v>50.49889095482388</v>
       </c>
       <c r="Q38" t="n">
-        <v>37.92256402915648</v>
+        <v>37.92256402915647</v>
       </c>
       <c r="R38" t="n">
-        <v>22.05927249548218</v>
+        <v>22.05927249548217</v>
       </c>
       <c r="S38" t="n">
-        <v>8.002319017623627</v>
+        <v>8.002319017623625</v>
       </c>
       <c r="T38" t="n">
         <v>1.537252945678438</v>
@@ -33970,10 +33970,10 @@
         <v>1.814653530301823</v>
       </c>
       <c r="I39" t="n">
-        <v>6.469132703392059</v>
+        <v>6.469132703392058</v>
       </c>
       <c r="J39" t="n">
-        <v>17.75179459411062</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K39" t="n">
         <v>30.34064442557776</v>
@@ -33985,7 +33985,7 @@
         <v>47.60787213693747</v>
       </c>
       <c r="N39" t="n">
-        <v>48.86791085075741</v>
+        <v>48.8679108507574</v>
       </c>
       <c r="O39" t="n">
         <v>44.70459130712216</v>
@@ -34003,7 +34003,7 @@
         <v>3.490035286479662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.757341777632777</v>
+        <v>0.7573417776327769</v>
       </c>
       <c r="U39" t="n">
         <v>0.01236140007017591</v>
@@ -34049,7 +34049,7 @@
         <v>1.400526363360652</v>
       </c>
       <c r="I40" t="n">
-        <v>4.737158701428462</v>
+        <v>4.737158701428461</v>
       </c>
       <c r="J40" t="n">
         <v>11.1369054477053</v>
@@ -34076,16 +34076,16 @@
         <v>13.1904379682157</v>
       </c>
       <c r="R40" t="n">
-        <v>7.082825555400592</v>
+        <v>7.082825555400591</v>
       </c>
       <c r="S40" t="n">
-        <v>2.745203515912441</v>
+        <v>2.74520351591244</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6730545917990858</v>
+        <v>0.6730545917990857</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008592186278286213</v>
+        <v>0.008592186278286212</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3511714324793689</v>
+        <v>0.3511714324793688</v>
       </c>
       <c r="H41" t="n">
-        <v>3.596434432879338</v>
+        <v>3.596434432879337</v>
       </c>
       <c r="I41" t="n">
         <v>13.53853665066088</v>
@@ -34134,31 +34134,31 @@
         <v>29.80523636739586</v>
       </c>
       <c r="K41" t="n">
-        <v>44.67032310424756</v>
+        <v>44.67032310424755</v>
       </c>
       <c r="L41" t="n">
-        <v>55.41748583098806</v>
+        <v>55.41748583098804</v>
       </c>
       <c r="M41" t="n">
-        <v>61.66263079334303</v>
+        <v>61.66263079334302</v>
       </c>
       <c r="N41" t="n">
-        <v>62.66039662587504</v>
+        <v>62.66039662587503</v>
       </c>
       <c r="O41" t="n">
-        <v>59.16843569415831</v>
+        <v>59.1684356941583</v>
       </c>
       <c r="P41" t="n">
-        <v>50.49889095482389</v>
+        <v>50.49889095482388</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.92256402915648</v>
+        <v>37.92256402915647</v>
       </c>
       <c r="R41" t="n">
-        <v>22.05927249548218</v>
+        <v>22.05927249548217</v>
       </c>
       <c r="S41" t="n">
-        <v>8.002319017623627</v>
+        <v>8.002319017623625</v>
       </c>
       <c r="T41" t="n">
         <v>1.537252945678438</v>
@@ -34207,10 +34207,10 @@
         <v>1.814653530301823</v>
       </c>
       <c r="I42" t="n">
-        <v>6.469132703392059</v>
+        <v>6.469132703392058</v>
       </c>
       <c r="J42" t="n">
-        <v>17.75179459411062</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K42" t="n">
         <v>30.34064442557776</v>
@@ -34222,7 +34222,7 @@
         <v>47.60787213693747</v>
       </c>
       <c r="N42" t="n">
-        <v>48.86791085075741</v>
+        <v>48.8679108507574</v>
       </c>
       <c r="O42" t="n">
         <v>44.70459130712216</v>
@@ -34240,7 +34240,7 @@
         <v>3.490035286479662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.757341777632777</v>
+        <v>0.7573417776327769</v>
       </c>
       <c r="U42" t="n">
         <v>0.01236140007017591</v>
@@ -34286,7 +34286,7 @@
         <v>1.400526363360652</v>
       </c>
       <c r="I43" t="n">
-        <v>4.737158701428462</v>
+        <v>4.737158701428461</v>
       </c>
       <c r="J43" t="n">
         <v>11.1369054477053</v>
@@ -34313,16 +34313,16 @@
         <v>13.1904379682157</v>
       </c>
       <c r="R43" t="n">
-        <v>7.082825555400592</v>
+        <v>7.082825555400591</v>
       </c>
       <c r="S43" t="n">
-        <v>2.745203515912441</v>
+        <v>2.74520351591244</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6730545917990858</v>
+        <v>0.6730545917990857</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008592186278286213</v>
+        <v>0.008592186278286212</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3511714324793689</v>
+        <v>0.3511714324793688</v>
       </c>
       <c r="H44" t="n">
-        <v>3.596434432879338</v>
+        <v>3.596434432879337</v>
       </c>
       <c r="I44" t="n">
         <v>13.53853665066088</v>
@@ -34371,31 +34371,31 @@
         <v>29.80523636739586</v>
       </c>
       <c r="K44" t="n">
-        <v>44.67032310424756</v>
+        <v>44.67032310424755</v>
       </c>
       <c r="L44" t="n">
-        <v>55.41748583098806</v>
+        <v>55.41748583098804</v>
       </c>
       <c r="M44" t="n">
-        <v>61.66263079334303</v>
+        <v>61.66263079334302</v>
       </c>
       <c r="N44" t="n">
-        <v>62.66039662587504</v>
+        <v>62.66039662587503</v>
       </c>
       <c r="O44" t="n">
-        <v>59.16843569415831</v>
+        <v>59.1684356941583</v>
       </c>
       <c r="P44" t="n">
-        <v>50.49889095482389</v>
+        <v>50.49889095482388</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.92256402915648</v>
+        <v>37.92256402915647</v>
       </c>
       <c r="R44" t="n">
-        <v>22.05927249548218</v>
+        <v>22.05927249548217</v>
       </c>
       <c r="S44" t="n">
-        <v>8.002319017623627</v>
+        <v>8.002319017623625</v>
       </c>
       <c r="T44" t="n">
         <v>1.537252945678438</v>
@@ -34444,10 +34444,10 @@
         <v>1.814653530301823</v>
       </c>
       <c r="I45" t="n">
-        <v>6.469132703392059</v>
+        <v>6.469132703392058</v>
       </c>
       <c r="J45" t="n">
-        <v>17.75179459411062</v>
+        <v>17.75179459411061</v>
       </c>
       <c r="K45" t="n">
         <v>30.34064442557776</v>
@@ -34459,7 +34459,7 @@
         <v>47.60787213693747</v>
       </c>
       <c r="N45" t="n">
-        <v>48.86791085075741</v>
+        <v>48.8679108507574</v>
       </c>
       <c r="O45" t="n">
         <v>44.70459130712216</v>
@@ -34477,7 +34477,7 @@
         <v>3.490035286479662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.757341777632777</v>
+        <v>0.7573417776327769</v>
       </c>
       <c r="U45" t="n">
         <v>0.01236140007017591</v>
@@ -34523,7 +34523,7 @@
         <v>1.400526363360652</v>
       </c>
       <c r="I46" t="n">
-        <v>4.737158701428462</v>
+        <v>4.737158701428461</v>
       </c>
       <c r="J46" t="n">
         <v>11.1369054477053</v>
@@ -34550,16 +34550,16 @@
         <v>13.1904379682157</v>
       </c>
       <c r="R46" t="n">
-        <v>7.082825555400592</v>
+        <v>7.082825555400591</v>
       </c>
       <c r="S46" t="n">
-        <v>2.745203515912441</v>
+        <v>2.74520351591244</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6730545917990858</v>
+        <v>0.6730545917990857</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008592186278286213</v>
+        <v>0.008592186278286212</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>183.3837519720954</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O3" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>76.66972081352203</v>
       </c>
       <c r="P5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M6" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N6" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O6" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6360295908603</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>216.4031014836407</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M9" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N9" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>50.61487639820182</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35421,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>565.5276366879947</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>504.6010349596354</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>483.5617149547198</v>
+        <v>226.8087134721371</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>309.8405727751573</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>775.2067785706223</v>
       </c>
       <c r="M17" t="n">
-        <v>845.8228237143065</v>
+        <v>845.8228237143064</v>
       </c>
       <c r="N17" t="n">
         <v>823.4493023214486</v>
       </c>
       <c r="O17" t="n">
-        <v>709.3006138932541</v>
+        <v>709.300613893254</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q17" t="n">
-        <v>362.3276213981383</v>
+        <v>362.3276213981382</v>
       </c>
       <c r="R17" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282033</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K18" t="n">
         <v>490.7510042895158</v>
       </c>
       <c r="L18" t="n">
-        <v>708.5625709197737</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>210.0742805543219</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>603.2590651327082</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R18" t="n">
-        <v>41.52396565918683</v>
+        <v>41.52396565918681</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.36170282670582</v>
+        <v>25.3617028267058</v>
       </c>
       <c r="K19" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L19" t="n">
-        <v>285.9417592477281</v>
+        <v>285.941759247728</v>
       </c>
       <c r="M19" t="n">
-        <v>316.878426929206</v>
+        <v>316.8784269292059</v>
       </c>
       <c r="N19" t="n">
-        <v>307.7809163757019</v>
+        <v>307.7809163757018</v>
       </c>
       <c r="O19" t="n">
         <v>284.4476533823385</v>
       </c>
       <c r="P19" t="n">
-        <v>226.8047109901567</v>
+        <v>226.8047109901566</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.38036706166098</v>
+        <v>79.38036706166096</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K20" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L20" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M20" t="n">
-        <v>845.8228237143065</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N20" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O20" t="n">
-        <v>709.3006138932541</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0006060246736</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q20" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R20" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L21" t="n">
-        <v>708.5625709197737</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>328.7619350304745</v>
       </c>
       <c r="O21" t="n">
-        <v>446.5084427972128</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K22" t="n">
         <v>174.4148191184445</v>
@@ -36293,13 +36293,13 @@
         <v>307.7809163757019</v>
       </c>
       <c r="O22" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P22" t="n">
         <v>226.8047109901567</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.38036706166098</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>286.5582378499759</v>
       </c>
       <c r="K23" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L23" t="n">
         <v>775.2067785706223</v>
@@ -36369,7 +36369,7 @@
         <v>845.8228237143065</v>
       </c>
       <c r="N23" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O23" t="n">
         <v>709.3006138932541</v>
@@ -36381,7 +36381,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R23" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282036</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L24" t="n">
-        <v>708.5625709197737</v>
+        <v>0.6701679875588681</v>
       </c>
       <c r="M24" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>446.5084427972128</v>
+        <v>931.350832175624</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.52396565918683</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>286.5582378499759</v>
       </c>
       <c r="K26" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L26" t="n">
         <v>775.2067785706223</v>
@@ -36606,7 +36606,7 @@
         <v>845.8228237143065</v>
       </c>
       <c r="N26" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O26" t="n">
         <v>709.3006138932541</v>
@@ -36618,7 +36618,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R26" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282036</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>328.7619350304744</v>
       </c>
       <c r="M27" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>223.7201815413626</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>41.52396565918683</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>286.5582378499759</v>
       </c>
       <c r="K29" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L29" t="n">
         <v>775.2067785706223</v>
@@ -36843,7 +36843,7 @@
         <v>845.8228237143065</v>
       </c>
       <c r="N29" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O29" t="n">
         <v>709.3006138932541</v>
@@ -36855,7 +36855,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R29" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282036</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>367.0476948445842</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>755.7723595352982</v>
+        <v>328.7619350304745</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>41.52396565918683</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>286.5582378499759</v>
       </c>
       <c r="K32" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L32" t="n">
         <v>775.2067785706223</v>
@@ -37080,7 +37080,7 @@
         <v>845.8228237143065</v>
       </c>
       <c r="N32" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O32" t="n">
         <v>709.3006138932541</v>
@@ -37092,7 +37092,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R32" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282036</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>223.7201815413626</v>
+        <v>328.7619350304744</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.52396565918683</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>286.5582378499759</v>
       </c>
       <c r="K35" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L35" t="n">
         <v>775.2067785706223</v>
@@ -37317,7 +37317,7 @@
         <v>845.8228237143065</v>
       </c>
       <c r="N35" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O35" t="n">
         <v>709.3006138932541</v>
@@ -37329,7 +37329,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R35" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282036</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L36" t="n">
-        <v>708.5625709197737</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>931.350832175624</v>
       </c>
       <c r="O36" t="n">
-        <v>742.3492505030245</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>603.2590651327082</v>
+        <v>0.6701679875587533</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.52396565918683</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>708.5625709197739</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.462625178805</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>819.5129393199903</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.36170282670583</v>
+        <v>25.36170282670582</v>
       </c>
       <c r="K40" t="n">
         <v>174.4148191184445</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>286.558237849976</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>588.2657787699441</v>
@@ -37794,16 +37794,16 @@
         <v>823.4493023214487</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0006060246739</v>
+        <v>380.0662313826412</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.7824201284286</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.02558127282038</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>490.7510042895158</v>
       </c>
       <c r="L42" t="n">
-        <v>708.5625709197739</v>
+        <v>328.7619350304748</v>
       </c>
       <c r="M42" t="n">
-        <v>642.3450545676284</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.36170282670583</v>
+        <v>25.36170282670582</v>
       </c>
       <c r="K43" t="n">
         <v>174.4148191184445</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>286.558237849976</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>557.894847201249</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L44" t="n">
         <v>775.2067785706224</v>
@@ -38028,16 +38028,16 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O44" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P44" t="n">
-        <v>585.0006060246739</v>
+        <v>380.0662313826412</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.3276213981383</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K45" t="n">
         <v>490.7510042895158</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>410.2837869896952</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>899.0998728385199</v>
       </c>
       <c r="N45" t="n">
-        <v>204.3884575979845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>755.7723595352983</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>603.2590651327082</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.36170282670583</v>
+        <v>25.36170282670582</v>
       </c>
       <c r="K46" t="n">
         <v>174.4148191184445</v>
